--- a/medicine/Mort/Monument_de_la_Résistance_à_Heks/Monument_de_la_Résistance_à_Heks.xlsx
+++ b/medicine/Mort/Monument_de_la_Résistance_à_Heks/Monument_de_la_Résistance_à_Heks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_de_la_R%C3%A9sistance_%C3%A0_Heks</t>
+          <t>Monument_de_la_Résistance_à_Heks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Monument de la Résistance à Heks est une monument dans la partie Est de la Belgique, dédié aux résistants de l’Armée secrète, secteur Borgloon, tombés pendant la Seconde Guerre mondiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_de_la_R%C3%A9sistance_%C3%A0_Heks</t>
+          <t>Monument_de_la_Résistance_à_Heks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située au coin des rues Hekslaan et Molenstraat à Heks, ce monument aux morts est localisé devant l’ancienne maison communale. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_de_la_R%C3%A9sistance_%C3%A0_Heks</t>
+          <t>Monument_de_la_Résistance_à_Heks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Inscriptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Face : 1940 - 1945 GEHEIM LEGER SEKTOOR BORGLOON DANKT ZIJN 17 GESNEUVELDE VERZETSLEDEN
 Côté gauche: 9 noms
